--- a/controller_placement.xlsx
+++ b/controller_placement.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekte\GitHub\hex_display\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75515CD-FAD4-4730-9D92-CEA2462568E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr codeName="DieseArbeitsmappe"/>
   <bookViews>
-    <workbookView xWindow="4455" yWindow="1665" windowWidth="28800" windowHeight="15435" xr2:uid="{EF082A3E-934A-4D08-B7DB-A8D61AFCDE6E}"/>
+    <workbookView xWindow="4455" yWindow="1665" windowWidth="28800" windowHeight="15435"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -51,7 +45,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -389,18 +383,19 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED96248D-601B-4A8E-AA27-3431C7E50108}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,7 +422,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -436,7 +431,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -444,7 +439,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -453,7 +448,7 @@
         <v>4</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -461,7 +456,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -470,7 +465,7 @@
         <v>8</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -478,7 +473,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -487,7 +482,7 @@
         <v>12</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -498,13 +493,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>14</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -521,7 +516,7 @@
         <v>10</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -538,7 +533,7 @@
         <v>6</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -555,7 +550,7 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -566,13 +561,13 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -583,13 +578,13 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -600,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>4</v>
       </c>
       <c r="E12">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -617,13 +612,13 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <v>8</v>
       </c>
       <c r="E13">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -634,13 +629,13 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <v>12</v>
       </c>
       <c r="E14">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -651,13 +646,13 @@
         <v>4</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15">
         <v>14</v>
       </c>
       <c r="E15">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -674,7 +669,7 @@
         <v>10</v>
       </c>
       <c r="E16">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -691,7 +686,7 @@
         <v>6</v>
       </c>
       <c r="E17">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -708,7 +703,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -719,13 +714,13 @@
         <v>3</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -736,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -753,7 +748,7 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D21">
         <v>4</v>
@@ -770,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D22">
         <v>8</v>
@@ -787,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D23">
         <v>12</v>
@@ -804,13 +799,13 @@
         <v>4</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24">
         <v>14</v>
       </c>
       <c r="E24">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -827,7 +822,7 @@
         <v>10</v>
       </c>
       <c r="E25">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -844,7 +839,7 @@
         <v>6</v>
       </c>
       <c r="E26">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -861,7 +856,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -872,13 +867,13 @@
         <v>3</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -889,13 +884,13 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -906,13 +901,13 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D30">
         <v>4</v>
       </c>
       <c r="E30">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -923,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D31">
         <v>8</v>
       </c>
       <c r="E31">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -940,13 +935,13 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D32">
         <v>12</v>
       </c>
       <c r="E32">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -957,13 +952,13 @@
         <v>4</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33">
         <v>14</v>
       </c>
       <c r="E33">
-        <v>38</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -980,7 +975,7 @@
         <v>10</v>
       </c>
       <c r="E34">
-        <v>38</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -997,7 +992,7 @@
         <v>6</v>
       </c>
       <c r="E35">
-        <v>38</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1014,7 +1009,7 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>38</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1025,13 +1020,13 @@
         <v>3</v>
       </c>
       <c r="C37">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>38</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1039,7 +1034,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -1048,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1056,7 +1051,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -1065,7 +1060,7 @@
         <v>4</v>
       </c>
       <c r="E39">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1073,7 +1068,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -1082,7 +1077,7 @@
         <v>8</v>
       </c>
       <c r="E40">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1090,7 +1085,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -1099,7 +1094,7 @@
         <v>12</v>
       </c>
       <c r="E41">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
